--- a/AHP_Coffee_Data.xlsx
+++ b/AHP_Coffee_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024\Nam4HK2\HoTroRaQuyetDinh\Project\AHP\AHP_Coffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F2A83A-FD72-408C-AE9C-2DF28191BC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCF4794-C0C3-47C3-8D67-A406B46C01F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="133">
   <si>
     <t>_id</t>
   </si>
@@ -415,7 +415,10 @@
     <t>Đường Lê Văn Sỹ</t>
   </si>
   <si>
-    <t xml:space="preserve">imageURL </t>
+    <t>imageURL</t>
+  </si>
+  <si>
+    <t>anh_gan_cho_ben_thanh.jpg</t>
   </si>
 </sst>
 </file>
@@ -780,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -795,7 +798,7 @@
     <col min="8" max="8" width="26.6640625" customWidth="1"/>
     <col min="9" max="9" width="26.44140625" customWidth="1"/>
     <col min="10" max="10" width="20.5546875" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="11" max="11" width="34.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -864,6 +867,9 @@
       <c r="J2" t="s">
         <v>13</v>
       </c>
+      <c r="K2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">

--- a/AHP_Coffee_Data.xlsx
+++ b/AHP_Coffee_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024\Nam4HK2\HoTroRaQuyetDinh\Project\AHP\AHP_Coffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCF4794-C0C3-47C3-8D67-A406B46C01F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B778C84D-AC67-411C-8044-BD69029FCF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="147">
   <si>
     <t>_id</t>
   </si>
@@ -145,12 +145,6 @@
     <t>Đường Nam Kỳ Khởi Nghĩa</t>
   </si>
   <si>
-    <t>67efaafe879cc207f9e80a79</t>
-  </si>
-  <si>
-    <t>Gần phố cổ và bến xe buýt</t>
-  </si>
-  <si>
     <t>67efaafe879cc207f9e80a7a</t>
   </si>
   <si>
@@ -169,18 +163,6 @@
     <t>Khu vực quanh Công viên Lê Thị Riêng</t>
   </si>
   <si>
-    <t>67efaafe879cc207f9e80a7d</t>
-  </si>
-  <si>
-    <t>Khu vực gần Phố Cổ 3</t>
-  </si>
-  <si>
-    <t>67efaafe879cc207f9e80a7e</t>
-  </si>
-  <si>
-    <t>Khu vực Phố Biển</t>
-  </si>
-  <si>
     <t>67efaafe879cc207f9e80a7f</t>
   </si>
   <si>
@@ -217,12 +199,6 @@
     <t>67efaafe879cc207f9e80a84</t>
   </si>
   <si>
-    <t>67efaafe879cc207f9e80a85</t>
-  </si>
-  <si>
-    <t>Khu vực quanh Đường 2/4</t>
-  </si>
-  <si>
     <t>67efaafe879cc207f9e80a86</t>
   </si>
   <si>
@@ -419,6 +395,72 @@
   </si>
   <si>
     <t>anh_gan_cho_ben_thanh.jpg</t>
+  </si>
+  <si>
+    <t>gan_benh_vien_nhi_dong2.png</t>
+  </si>
+  <si>
+    <t>pho_di_bo_nguyen_hue.png</t>
+  </si>
+  <si>
+    <t>pho_le_loi.png</t>
+  </si>
+  <si>
+    <t>khu_vuc_pham_ngu_lao.jpg</t>
+  </si>
+  <si>
+    <t>khu_vuc_da_kao.jpg</t>
+  </si>
+  <si>
+    <t>khu_vuc_gan_buu_dien_trung_tam.jpg</t>
+  </si>
+  <si>
+    <t>khu-vuc-gan-nha-hat-tp.jpg</t>
+  </si>
+  <si>
+    <t>khu-vuc-ven-song-sai-gon.png</t>
+  </si>
+  <si>
+    <t>gan-truong-dai-hoc-kinh-te.png</t>
+  </si>
+  <si>
+    <t>gan-benh-vien-tu-du.png</t>
+  </si>
+  <si>
+    <t>duong-nam-ky-khoi-nghia.png</t>
+  </si>
+  <si>
+    <t>duong-vo-van-tan.png</t>
+  </si>
+  <si>
+    <t>duong-tran-quang-khai.png</t>
+  </si>
+  <si>
+    <t>khu-vuc-gan-cong-vien-le-thi-rieng.png</t>
+  </si>
+  <si>
+    <t>gan-cho-xom-chieu.png</t>
+  </si>
+  <si>
+    <t>gan-truong-dai-hoc-nguyen-tat-thanh.png</t>
+  </si>
+  <si>
+    <t>gan-duong-30-4.png</t>
+  </si>
+  <si>
+    <t>gan-trung-tam-mua-sam-q4.png</t>
+  </si>
+  <si>
+    <t>khu-vuc-ven-song-sai-gon-q4.png</t>
+  </si>
+  <si>
+    <t>gan-tram-xe-buyt-q4.png</t>
+  </si>
+  <si>
+    <t>gan-trung-tam-thuong-mai-q4.png</t>
+  </si>
+  <si>
+    <t>gan-truong-hoc-va-dan-cu-q4.png</t>
   </si>
 </sst>
 </file>
@@ -781,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -833,7 +875,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -868,7 +910,7 @@
         <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -902,6 +944,9 @@
       <c r="J3" t="s">
         <v>13</v>
       </c>
+      <c r="K3" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -934,6 +979,9 @@
       <c r="J4" t="s">
         <v>18</v>
       </c>
+      <c r="K4" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -966,6 +1014,9 @@
       <c r="J5" t="s">
         <v>18</v>
       </c>
+      <c r="K5" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -998,6 +1049,9 @@
       <c r="J6" t="s">
         <v>13</v>
       </c>
+      <c r="K6" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1030,6 +1084,9 @@
       <c r="J7" t="s">
         <v>13</v>
       </c>
+      <c r="K7" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1062,6 +1119,9 @@
       <c r="J8" t="s">
         <v>18</v>
       </c>
+      <c r="K8" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1094,6 +1154,9 @@
       <c r="J9" t="s">
         <v>18</v>
       </c>
+      <c r="K9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1126,6 +1189,9 @@
       <c r="J10" t="s">
         <v>31</v>
       </c>
+      <c r="K10" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1158,6 +1224,9 @@
       <c r="J11" t="s">
         <v>35</v>
       </c>
+      <c r="K11" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1190,6 +1259,9 @@
       <c r="J12" t="s">
         <v>38</v>
       </c>
+      <c r="K12" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1222,6 +1294,9 @@
       <c r="J13" t="s">
         <v>31</v>
       </c>
+      <c r="K13" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1234,25 +1309,28 @@
         <v>34</v>
       </c>
       <c r="D14">
-        <v>30000000</v>
+        <v>31400000</v>
       </c>
       <c r="E14">
         <v>41000</v>
       </c>
       <c r="F14">
-        <v>17000000</v>
+        <v>18000000</v>
       </c>
       <c r="G14">
         <v>40</v>
       </c>
       <c r="H14">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I14">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J14" t="s">
-        <v>13</v>
+        <v>31</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1266,7 +1344,7 @@
         <v>34</v>
       </c>
       <c r="D15">
-        <v>31400000</v>
+        <v>31800000</v>
       </c>
       <c r="E15">
         <v>41000</v>
@@ -1278,13 +1356,16 @@
         <v>40</v>
       </c>
       <c r="H15">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I15">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="K15" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1298,7 +1379,7 @@
         <v>34</v>
       </c>
       <c r="D16">
-        <v>31800000</v>
+        <v>32400000</v>
       </c>
       <c r="E16">
         <v>41000</v>
@@ -1310,16 +1391,19 @@
         <v>40</v>
       </c>
       <c r="H16">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I16">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1351,7 +1435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -1359,109 +1443,118 @@
         <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D18">
-        <v>30400000</v>
+        <v>24000000</v>
       </c>
       <c r="E18">
-        <v>40000</v>
+        <v>42500</v>
       </c>
       <c r="F18">
-        <v>17000000</v>
+        <v>14000000</v>
       </c>
       <c r="G18">
         <v>40</v>
       </c>
       <c r="H18">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="I18">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="J18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="K18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
         <v>51</v>
       </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
       <c r="D19">
-        <v>31800000</v>
+        <v>26000000</v>
       </c>
       <c r="E19">
-        <v>41000</v>
+        <v>42000</v>
       </c>
       <c r="F19">
-        <v>18000000</v>
+        <v>14000000</v>
       </c>
       <c r="G19">
         <v>40</v>
       </c>
       <c r="H19">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="I19">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="J19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D20">
-        <v>32400000</v>
+        <v>25400000</v>
       </c>
       <c r="E20">
-        <v>41000</v>
+        <v>41500</v>
       </c>
       <c r="F20">
-        <v>18000000</v>
+        <v>14000000</v>
       </c>
       <c r="G20">
         <v>40</v>
       </c>
       <c r="H20">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="I20">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="J20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D21">
-        <v>24000000</v>
+        <v>27000000</v>
       </c>
       <c r="E21">
-        <v>42500</v>
+        <v>42000</v>
       </c>
       <c r="F21">
         <v>14000000</v>
@@ -1470,27 +1563,30 @@
         <v>40</v>
       </c>
       <c r="H21">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="I21">
         <v>90</v>
       </c>
       <c r="J21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="K21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D22">
-        <v>26000000</v>
+        <v>25400000</v>
       </c>
       <c r="E22">
         <v>42000</v>
@@ -1502,30 +1598,33 @@
         <v>40</v>
       </c>
       <c r="H22">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I22">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J22" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
         <v>60</v>
       </c>
-      <c r="B23" t="s">
-        <v>61</v>
-      </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D23">
-        <v>25400000</v>
+        <v>24000000</v>
       </c>
       <c r="E23">
-        <v>41500</v>
+        <v>42500</v>
       </c>
       <c r="F23">
         <v>14000000</v>
@@ -1534,27 +1633,30 @@
         <v>40</v>
       </c>
       <c r="H23">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="I23">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="K23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
         <v>62</v>
       </c>
-      <c r="B24" t="s">
-        <v>63</v>
-      </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D24">
-        <v>27000000</v>
+        <v>26400000</v>
       </c>
       <c r="E24">
         <v>42000</v>
@@ -1572,18 +1674,21 @@
         <v>90</v>
       </c>
       <c r="J24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="K24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
         <v>64</v>
       </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D25">
         <v>25400000</v>
@@ -1598,7 +1703,7 @@
         <v>40</v>
       </c>
       <c r="H25">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I25">
         <v>90</v>
@@ -1606,8 +1711,11 @@
       <c r="J25" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -1615,167 +1723,167 @@
         <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D26">
-        <v>27000000</v>
+        <v>140000000</v>
       </c>
       <c r="E26">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="F26">
-        <v>14000000</v>
+        <v>10000000</v>
       </c>
       <c r="G26">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="H26">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="I26">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
         <v>67</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27">
+        <v>125000000</v>
+      </c>
+      <c r="E27">
+        <v>45000</v>
+      </c>
+      <c r="F27">
+        <v>10000000</v>
+      </c>
+      <c r="G27">
+        <v>52.5</v>
+      </c>
+      <c r="H27">
+        <v>50</v>
+      </c>
+      <c r="I27">
+        <v>100</v>
+      </c>
+      <c r="J27" t="s">
         <v>68</v>
       </c>
-      <c r="C27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27">
-        <v>24000000</v>
-      </c>
-      <c r="E27">
-        <v>42500</v>
-      </c>
-      <c r="F27">
-        <v>14000000</v>
-      </c>
-      <c r="G27">
-        <v>40</v>
-      </c>
-      <c r="H27">
-        <v>100</v>
-      </c>
-      <c r="I27">
-        <v>90</v>
-      </c>
-      <c r="J27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D28">
-        <v>26400000</v>
+        <v>100000000</v>
       </c>
       <c r="E28">
-        <v>42000</v>
+        <v>40000</v>
       </c>
       <c r="F28">
-        <v>14000000</v>
+        <v>8500000</v>
       </c>
       <c r="G28">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H28">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="I28">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="J28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D29">
-        <v>25400000</v>
+        <v>105000000</v>
       </c>
       <c r="E29">
-        <v>42000</v>
+        <v>40000</v>
       </c>
       <c r="F29">
-        <v>14000000</v>
+        <v>8500000</v>
       </c>
       <c r="G29">
-        <v>40</v>
+        <v>52.5</v>
       </c>
       <c r="H29">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="I29">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30">
+        <v>105000000</v>
+      </c>
+      <c r="E30">
+        <v>40000</v>
+      </c>
+      <c r="F30">
+        <v>8500000</v>
+      </c>
+      <c r="G30">
+        <v>52.5</v>
+      </c>
+      <c r="H30">
+        <v>40</v>
+      </c>
+      <c r="I30">
+        <v>80</v>
+      </c>
+      <c r="J30" t="s">
         <v>75</v>
       </c>
-      <c r="D30">
-        <v>140000000</v>
-      </c>
-      <c r="E30">
-        <v>45000</v>
-      </c>
-      <c r="F30">
-        <v>10000000</v>
-      </c>
-      <c r="G30">
-        <v>65</v>
-      </c>
-      <c r="H30">
-        <v>60</v>
-      </c>
-      <c r="I30">
-        <v>100</v>
-      </c>
-      <c r="J30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D31">
         <v>125000000</v>
@@ -1787,7 +1895,7 @@
         <v>10000000</v>
       </c>
       <c r="G31">
-        <v>52.5</v>
+        <v>65</v>
       </c>
       <c r="H31">
         <v>50</v>
@@ -1796,21 +1904,21 @@
         <v>100</v>
       </c>
       <c r="J31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D32">
-        <v>100000000</v>
+        <v>90000000</v>
       </c>
       <c r="E32">
         <v>40000</v>
@@ -1822,33 +1930,33 @@
         <v>45</v>
       </c>
       <c r="H32">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I32">
         <v>65</v>
       </c>
       <c r="J32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D33">
-        <v>105000000</v>
+        <v>110000000</v>
       </c>
       <c r="E33">
         <v>40000</v>
       </c>
       <c r="F33">
-        <v>8500000</v>
+        <v>9000000</v>
       </c>
       <c r="G33">
         <v>52.5</v>
@@ -1860,7 +1968,7 @@
         <v>80</v>
       </c>
       <c r="J33" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -1871,7 +1979,7 @@
         <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D34">
         <v>105000000</v>
@@ -1892,7 +2000,7 @@
         <v>80</v>
       </c>
       <c r="J34" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -1903,7 +2011,7 @@
         <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D35">
         <v>125000000</v>
@@ -1924,7 +2032,7 @@
         <v>100</v>
       </c>
       <c r="J35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -1935,51 +2043,51 @@
         <v>89</v>
       </c>
       <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36">
+        <v>120000000</v>
+      </c>
+      <c r="E36">
+        <v>37500</v>
+      </c>
+      <c r="F36">
+        <v>9500000</v>
+      </c>
+      <c r="G36">
+        <v>50</v>
+      </c>
+      <c r="H36">
+        <v>50</v>
+      </c>
+      <c r="I36">
+        <v>100</v>
+      </c>
+      <c r="J36" t="s">
         <v>75</v>
-      </c>
-      <c r="D36">
-        <v>90000000</v>
-      </c>
-      <c r="E36">
-        <v>40000</v>
-      </c>
-      <c r="F36">
-        <v>8500000</v>
-      </c>
-      <c r="G36">
-        <v>45</v>
-      </c>
-      <c r="H36">
-        <v>30</v>
-      </c>
-      <c r="I36">
-        <v>65</v>
-      </c>
-      <c r="J36" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" t="s">
         <v>90</v>
       </c>
-      <c r="B37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" t="s">
-        <v>75</v>
-      </c>
       <c r="D37">
-        <v>110000000</v>
+        <v>100000000</v>
       </c>
       <c r="E37">
-        <v>40000</v>
+        <v>37500</v>
       </c>
       <c r="F37">
-        <v>9000000</v>
+        <v>9500000</v>
       </c>
       <c r="G37">
-        <v>52.5</v>
+        <v>45</v>
       </c>
       <c r="H37">
         <v>40</v>
@@ -1988,103 +2096,103 @@
         <v>80</v>
       </c>
       <c r="J37" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D38">
-        <v>105000000</v>
+        <v>135000000</v>
       </c>
       <c r="E38">
-        <v>40000</v>
+        <v>37500</v>
       </c>
       <c r="F38">
-        <v>8500000</v>
+        <v>10000000</v>
       </c>
       <c r="G38">
         <v>52.5</v>
       </c>
       <c r="H38">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I38">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D39">
-        <v>125000000</v>
+        <v>100000000</v>
       </c>
       <c r="E39">
-        <v>45000</v>
+        <v>37500</v>
       </c>
       <c r="F39">
-        <v>10000000</v>
+        <v>9500000</v>
       </c>
       <c r="G39">
-        <v>65</v>
+        <v>52.5</v>
       </c>
       <c r="H39">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I39">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J39" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D40">
-        <v>120000000</v>
+        <v>90000000</v>
       </c>
       <c r="E40">
         <v>37500</v>
       </c>
       <c r="F40">
-        <v>9500000</v>
+        <v>8500000</v>
       </c>
       <c r="G40">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H40">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I40">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="J40" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2095,19 +2203,19 @@
         <v>100</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D41">
-        <v>100000000</v>
+        <v>125000000</v>
       </c>
       <c r="E41">
         <v>37500</v>
       </c>
       <c r="F41">
-        <v>9500000</v>
+        <v>10000000</v>
       </c>
       <c r="G41">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="H41">
         <v>40</v>
@@ -2116,187 +2224,187 @@
         <v>80</v>
       </c>
       <c r="J41" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D42">
-        <v>135000000</v>
+        <v>105000000</v>
       </c>
       <c r="E42">
         <v>37500</v>
       </c>
       <c r="F42">
-        <v>10000000</v>
+        <v>9000000</v>
       </c>
       <c r="G42">
         <v>52.5</v>
       </c>
       <c r="H42">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I42">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J42" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D43">
-        <v>100000000</v>
+        <v>120000000</v>
       </c>
       <c r="E43">
         <v>37500</v>
       </c>
       <c r="F43">
-        <v>9500000</v>
+        <v>10000000</v>
       </c>
       <c r="G43">
-        <v>52.5</v>
+        <v>65</v>
       </c>
       <c r="H43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I43">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J43" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D44">
-        <v>90000000</v>
+        <v>200000000</v>
       </c>
       <c r="E44">
-        <v>37500</v>
+        <v>27500</v>
       </c>
       <c r="F44">
-        <v>8500000</v>
+        <v>12500000</v>
       </c>
       <c r="G44">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="H44">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="I44">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="J44" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" t="s">
         <v>108</v>
       </c>
-      <c r="C45" t="s">
-        <v>98</v>
-      </c>
       <c r="D45">
-        <v>125000000</v>
+        <v>140000000</v>
       </c>
       <c r="E45">
-        <v>37500</v>
+        <v>27500</v>
       </c>
       <c r="F45">
-        <v>10000000</v>
+        <v>12500000</v>
       </c>
       <c r="G45">
         <v>65</v>
       </c>
       <c r="H45">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I45">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J45" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D46">
-        <v>105000000</v>
+        <v>175000000</v>
       </c>
       <c r="E46">
-        <v>37500</v>
+        <v>27500</v>
       </c>
       <c r="F46">
-        <v>9000000</v>
+        <v>12500000</v>
       </c>
       <c r="G46">
-        <v>52.5</v>
+        <v>65</v>
       </c>
       <c r="H46">
         <v>40</v>
       </c>
       <c r="I46">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J46" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D47">
-        <v>120000000</v>
+        <v>140000000</v>
       </c>
       <c r="E47">
-        <v>37500</v>
+        <v>27500</v>
       </c>
       <c r="F47">
-        <v>10000000</v>
+        <v>12500000</v>
       </c>
       <c r="G47">
         <v>65</v>
@@ -2308,21 +2416,21 @@
         <v>100</v>
       </c>
       <c r="J47" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D48">
-        <v>200000000</v>
+        <v>125000000</v>
       </c>
       <c r="E48">
         <v>27500</v>
@@ -2334,13 +2442,13 @@
         <v>65</v>
       </c>
       <c r="H48">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I48">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="J48" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2351,7 +2459,7 @@
         <v>118</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D49">
         <v>140000000</v>
@@ -2372,7 +2480,7 @@
         <v>100</v>
       </c>
       <c r="J49" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2383,10 +2491,10 @@
         <v>120</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D50">
-        <v>175000000</v>
+        <v>155000000</v>
       </c>
       <c r="E50">
         <v>27500</v>
@@ -2398,13 +2506,13 @@
         <v>65</v>
       </c>
       <c r="H50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I50">
         <v>100</v>
       </c>
       <c r="J50" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2415,7 +2523,7 @@
         <v>122</v>
       </c>
       <c r="C51" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D51">
         <v>140000000</v>
@@ -2430,141 +2538,13 @@
         <v>65</v>
       </c>
       <c r="H51">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I51">
         <v>100</v>
       </c>
       <c r="J51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>123</v>
-      </c>
-      <c r="B52" t="s">
-        <v>124</v>
-      </c>
-      <c r="C52" t="s">
-        <v>116</v>
-      </c>
-      <c r="D52">
-        <v>125000000</v>
-      </c>
-      <c r="E52">
-        <v>27500</v>
-      </c>
-      <c r="F52">
-        <v>12500000</v>
-      </c>
-      <c r="G52">
-        <v>65</v>
-      </c>
-      <c r="H52">
-        <v>40</v>
-      </c>
-      <c r="I52">
-        <v>100</v>
-      </c>
-      <c r="J52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>125</v>
-      </c>
-      <c r="B53" t="s">
-        <v>126</v>
-      </c>
-      <c r="C53" t="s">
-        <v>116</v>
-      </c>
-      <c r="D53">
-        <v>140000000</v>
-      </c>
-      <c r="E53">
-        <v>27500</v>
-      </c>
-      <c r="F53">
-        <v>12500000</v>
-      </c>
-      <c r="G53">
-        <v>65</v>
-      </c>
-      <c r="H53">
-        <v>50</v>
-      </c>
-      <c r="I53">
-        <v>100</v>
-      </c>
-      <c r="J53" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>127</v>
-      </c>
-      <c r="B54" t="s">
-        <v>128</v>
-      </c>
-      <c r="C54" t="s">
-        <v>116</v>
-      </c>
-      <c r="D54">
-        <v>155000000</v>
-      </c>
-      <c r="E54">
-        <v>27500</v>
-      </c>
-      <c r="F54">
-        <v>12500000</v>
-      </c>
-      <c r="G54">
-        <v>65</v>
-      </c>
-      <c r="H54">
-        <v>50</v>
-      </c>
-      <c r="I54">
-        <v>100</v>
-      </c>
-      <c r="J54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>129</v>
-      </c>
-      <c r="B55" t="s">
-        <v>130</v>
-      </c>
-      <c r="C55" t="s">
-        <v>116</v>
-      </c>
-      <c r="D55">
-        <v>140000000</v>
-      </c>
-      <c r="E55">
-        <v>27500</v>
-      </c>
-      <c r="F55">
-        <v>12500000</v>
-      </c>
-      <c r="G55">
-        <v>65</v>
-      </c>
-      <c r="H55">
-        <v>40</v>
-      </c>
-      <c r="I55">
-        <v>100</v>
-      </c>
-      <c r="J55" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/AHP_Coffee_Data.xlsx
+++ b/AHP_Coffee_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024\Nam4HK2\HoTroRaQuyetDinh\Project\AHP\AHP_Coffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B778C84D-AC67-411C-8044-BD69029FCF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9689C251-0DF0-4B0D-957E-029B5DD70087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="165">
   <si>
     <t>_id</t>
   </si>
@@ -163,12 +163,6 @@
     <t>Khu vực quanh Công viên Lê Thị Riêng</t>
   </si>
   <si>
-    <t>67efaafe879cc207f9e80a7f</t>
-  </si>
-  <si>
-    <t>Khu vực quanh Trung tâm Giao thông Quận 3</t>
-  </si>
-  <si>
     <t>67efaafe879cc207f9e80a80</t>
   </si>
   <si>
@@ -319,12 +313,6 @@
     <t>Đường Bà Hạt</t>
   </si>
   <si>
-    <t>67efaafe879cc207f9e80a98</t>
-  </si>
-  <si>
-    <t>Đường Nguyễn Thị Minh Khai</t>
-  </si>
-  <si>
     <t>thấp</t>
   </si>
   <si>
@@ -379,12 +367,6 @@
     <t>Đường Trần Huy Liệu</t>
   </si>
   <si>
-    <t>67efaafe879cc207f9e80aa1</t>
-  </si>
-  <si>
-    <t>Đường Phổ Quang</t>
-  </si>
-  <si>
     <t>67efaafe879cc207f9e80aa2</t>
   </si>
   <si>
@@ -461,6 +443,78 @@
   </si>
   <si>
     <t>gan-truong-hoc-va-dan-cu-q4.png</t>
+  </si>
+  <si>
+    <t>duong-nguyen-trai-q5.png</t>
+  </si>
+  <si>
+    <t>duong-tran-hung-dao-q5.png</t>
+  </si>
+  <si>
+    <t>duong-an-duong-vuong-q5.png</t>
+  </si>
+  <si>
+    <t>duong-hong-bang-q5.png</t>
+  </si>
+  <si>
+    <t>duong-nguyen-tri-phuong-q5.png</t>
+  </si>
+  <si>
+    <t>duogng-le-hong-phong-q5.png</t>
+  </si>
+  <si>
+    <t>duong-tran-phu-q5.png</t>
+  </si>
+  <si>
+    <t>duong-ngo-quyen-q5.png</t>
+  </si>
+  <si>
+    <t>duong-nguyen-chi-thanh-q5.png</t>
+  </si>
+  <si>
+    <t>duong-hung-vuong-q5.png</t>
+  </si>
+  <si>
+    <t>q10-duong3-2.png</t>
+  </si>
+  <si>
+    <t>q10-duong-ly-thai-to.png</t>
+  </si>
+  <si>
+    <t>q10-duong-su-van-thanh.png</t>
+  </si>
+  <si>
+    <t>q10-duong-cach-mang-T8.png</t>
+  </si>
+  <si>
+    <t>q10-duong-ba-hat.png</t>
+  </si>
+  <si>
+    <t>q10-duong-thanh-thai.png</t>
+  </si>
+  <si>
+    <t>q10-duong-ly-thuong-kiet.png</t>
+  </si>
+  <si>
+    <t>qPN-duong-phan-xich-long.png</t>
+  </si>
+  <si>
+    <t>qPN-duong-hoang-van-thu.png</t>
+  </si>
+  <si>
+    <t>qPN-duong-nguyen-van-troi.png</t>
+  </si>
+  <si>
+    <t>qPN-duong-nguyen-kiem.png</t>
+  </si>
+  <si>
+    <t>qPN-duong-dang-van-ngu.png</t>
+  </si>
+  <si>
+    <t>qPN-duong-tran-huy-lieu.png</t>
+  </si>
+  <si>
+    <t>qPN-duong-le-van-sy.png</t>
   </si>
 </sst>
 </file>
@@ -823,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -875,7 +929,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -910,7 +964,7 @@
         <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -945,7 +999,7 @@
         <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -980,7 +1034,7 @@
         <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1015,7 +1069,7 @@
         <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1050,7 +1104,7 @@
         <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1085,7 +1139,7 @@
         <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1120,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1155,7 +1209,7 @@
         <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1190,7 +1244,7 @@
         <v>31</v>
       </c>
       <c r="K10" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1225,7 +1279,7 @@
         <v>35</v>
       </c>
       <c r="K11" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1260,7 +1314,7 @@
         <v>38</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1295,7 +1349,7 @@
         <v>31</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1330,7 +1384,7 @@
         <v>31</v>
       </c>
       <c r="K14" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1365,7 +1419,7 @@
         <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1400,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1411,45 +1465,48 @@
         <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D17">
-        <v>32400000</v>
+        <v>24000000</v>
       </c>
       <c r="E17">
-        <v>41000</v>
+        <v>42500</v>
       </c>
       <c r="F17">
-        <v>18000000</v>
+        <v>14000000</v>
       </c>
       <c r="G17">
         <v>40</v>
       </c>
       <c r="H17">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="I17">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J17" t="s">
-        <v>13</v>
+        <v>38</v>
+      </c>
+      <c r="K17" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
         <v>49</v>
       </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
       <c r="D18">
-        <v>24000000</v>
+        <v>26000000</v>
       </c>
       <c r="E18">
-        <v>42500</v>
+        <v>42000</v>
       </c>
       <c r="F18">
         <v>14000000</v>
@@ -1458,16 +1515,16 @@
         <v>40</v>
       </c>
       <c r="H18">
+        <v>115</v>
+      </c>
+      <c r="I18">
         <v>100</v>
       </c>
-      <c r="I18">
-        <v>90</v>
-      </c>
       <c r="J18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K18" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1478,13 +1535,13 @@
         <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19">
-        <v>26000000</v>
+        <v>25400000</v>
       </c>
       <c r="E19">
-        <v>42000</v>
+        <v>41500</v>
       </c>
       <c r="F19">
         <v>14000000</v>
@@ -1496,13 +1553,13 @@
         <v>115</v>
       </c>
       <c r="I19">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J19" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1513,13 +1570,13 @@
         <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20">
-        <v>25400000</v>
+        <v>27000000</v>
       </c>
       <c r="E20">
-        <v>41500</v>
+        <v>42000</v>
       </c>
       <c r="F20">
         <v>14000000</v>
@@ -1528,16 +1585,16 @@
         <v>40</v>
       </c>
       <c r="H20">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="I20">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J20" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K20" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1545,13 +1602,13 @@
         <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D21">
-        <v>27000000</v>
+        <v>25400000</v>
       </c>
       <c r="E21">
         <v>42000</v>
@@ -1563,33 +1620,33 @@
         <v>40</v>
       </c>
       <c r="H21">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I21">
         <v>90</v>
       </c>
       <c r="J21" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K21" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
         <v>58</v>
       </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D22">
-        <v>25400000</v>
+        <v>24000000</v>
       </c>
       <c r="E22">
-        <v>42000</v>
+        <v>42500</v>
       </c>
       <c r="F22">
         <v>14000000</v>
@@ -1598,16 +1655,16 @@
         <v>40</v>
       </c>
       <c r="H22">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I22">
         <v>90</v>
       </c>
       <c r="J22" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K22" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1618,13 +1675,13 @@
         <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D23">
-        <v>24000000</v>
+        <v>26400000</v>
       </c>
       <c r="E23">
-        <v>42500</v>
+        <v>42000</v>
       </c>
       <c r="F23">
         <v>14000000</v>
@@ -1633,16 +1690,16 @@
         <v>40</v>
       </c>
       <c r="H23">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="I23">
         <v>90</v>
       </c>
       <c r="J23" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="K23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1653,10 +1710,10 @@
         <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D24">
-        <v>26400000</v>
+        <v>25400000</v>
       </c>
       <c r="E24">
         <v>42000</v>
@@ -1668,16 +1725,16 @@
         <v>40</v>
       </c>
       <c r="H24">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I24">
         <v>90</v>
       </c>
       <c r="J24" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="K24" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1688,45 +1745,45 @@
         <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D25">
-        <v>25400000</v>
+        <v>140000000</v>
       </c>
       <c r="E25">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="F25">
-        <v>14000000</v>
+        <v>10000000</v>
       </c>
       <c r="G25">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="H25">
+        <v>60</v>
+      </c>
+      <c r="I25">
         <v>100</v>
       </c>
-      <c r="I25">
-        <v>90</v>
-      </c>
       <c r="J25" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="K25" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
         <v>65</v>
       </c>
-      <c r="B26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" t="s">
-        <v>67</v>
-      </c>
       <c r="D26">
-        <v>140000000</v>
+        <v>125000000</v>
       </c>
       <c r="E26">
         <v>45000</v>
@@ -1735,16 +1792,19 @@
         <v>10000000</v>
       </c>
       <c r="G26">
-        <v>65</v>
+        <v>52.5</v>
       </c>
       <c r="H26">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I26">
         <v>100</v>
       </c>
       <c r="J26" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="K26" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1755,28 +1815,31 @@
         <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D27">
-        <v>125000000</v>
+        <v>100000000</v>
       </c>
       <c r="E27">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="F27">
-        <v>10000000</v>
+        <v>8500000</v>
       </c>
       <c r="G27">
-        <v>52.5</v>
+        <v>45</v>
       </c>
       <c r="H27">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I27">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="J27" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="K27" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1787,10 +1850,10 @@
         <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28">
-        <v>100000000</v>
+        <v>105000000</v>
       </c>
       <c r="E28">
         <v>40000</v>
@@ -1799,27 +1862,30 @@
         <v>8500000</v>
       </c>
       <c r="G28">
-        <v>45</v>
+        <v>52.5</v>
       </c>
       <c r="H28">
         <v>40</v>
       </c>
       <c r="I28">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="K28" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D29">
         <v>105000000</v>
@@ -1840,7 +1906,10 @@
         <v>80</v>
       </c>
       <c r="J29" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="K29" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1851,28 +1920,31 @@
         <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D30">
-        <v>105000000</v>
+        <v>125000000</v>
       </c>
       <c r="E30">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="F30">
-        <v>8500000</v>
+        <v>10000000</v>
       </c>
       <c r="G30">
-        <v>52.5</v>
+        <v>65</v>
       </c>
       <c r="H30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I30">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J30" t="s">
-        <v>75</v>
+        <v>66</v>
+      </c>
+      <c r="K30" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1883,28 +1955,31 @@
         <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D31">
-        <v>125000000</v>
+        <v>90000000</v>
       </c>
       <c r="E31">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="F31">
-        <v>10000000</v>
+        <v>8500000</v>
       </c>
       <c r="G31">
+        <v>45</v>
+      </c>
+      <c r="H31">
+        <v>30</v>
+      </c>
+      <c r="I31">
         <v>65</v>
       </c>
-      <c r="H31">
-        <v>50</v>
-      </c>
-      <c r="I31">
-        <v>100</v>
-      </c>
       <c r="J31" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="K31" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -1915,31 +1990,34 @@
         <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D32">
-        <v>90000000</v>
+        <v>110000000</v>
       </c>
       <c r="E32">
         <v>40000</v>
       </c>
       <c r="F32">
-        <v>8500000</v>
+        <v>9000000</v>
       </c>
       <c r="G32">
-        <v>45</v>
+        <v>52.5</v>
       </c>
       <c r="H32">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I32">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="K32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -1947,16 +2025,16 @@
         <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D33">
-        <v>110000000</v>
+        <v>105000000</v>
       </c>
       <c r="E33">
         <v>40000</v>
       </c>
       <c r="F33">
-        <v>9000000</v>
+        <v>8500000</v>
       </c>
       <c r="G33">
         <v>52.5</v>
@@ -1968,10 +2046,13 @@
         <v>80</v>
       </c>
       <c r="J33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="K33" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -1979,31 +2060,34 @@
         <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D34">
-        <v>105000000</v>
+        <v>125000000</v>
       </c>
       <c r="E34">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="F34">
-        <v>8500000</v>
+        <v>10000000</v>
       </c>
       <c r="G34">
-        <v>52.5</v>
+        <v>65</v>
       </c>
       <c r="H34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I34">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="K34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -2011,19 +2095,19 @@
         <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="D35">
-        <v>125000000</v>
+        <v>120000000</v>
       </c>
       <c r="E35">
-        <v>45000</v>
+        <v>37500</v>
       </c>
       <c r="F35">
-        <v>10000000</v>
+        <v>9500000</v>
       </c>
       <c r="G35">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H35">
         <v>50</v>
@@ -2032,21 +2116,24 @@
         <v>100</v>
       </c>
       <c r="J35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="K35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" t="s">
         <v>88</v>
       </c>
-      <c r="B36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" t="s">
-        <v>90</v>
-      </c>
       <c r="D36">
-        <v>120000000</v>
+        <v>100000000</v>
       </c>
       <c r="E36">
         <v>37500</v>
@@ -2055,19 +2142,22 @@
         <v>9500000</v>
       </c>
       <c r="G36">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H36">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I36">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="K36" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -2075,31 +2165,34 @@
         <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D37">
-        <v>100000000</v>
+        <v>135000000</v>
       </c>
       <c r="E37">
         <v>37500</v>
       </c>
       <c r="F37">
-        <v>9500000</v>
+        <v>10000000</v>
       </c>
       <c r="G37">
-        <v>45</v>
+        <v>52.5</v>
       </c>
       <c r="H37">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I37">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J37" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="K37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>93</v>
       </c>
@@ -2107,31 +2200,34 @@
         <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D38">
-        <v>135000000</v>
+        <v>100000000</v>
       </c>
       <c r="E38">
         <v>37500</v>
       </c>
       <c r="F38">
-        <v>10000000</v>
+        <v>9500000</v>
       </c>
       <c r="G38">
         <v>52.5</v>
       </c>
       <c r="H38">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I38">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="K38" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -2139,74 +2235,80 @@
         <v>96</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D39">
-        <v>100000000</v>
+        <v>90000000</v>
       </c>
       <c r="E39">
         <v>37500</v>
       </c>
       <c r="F39">
-        <v>9500000</v>
+        <v>8500000</v>
       </c>
       <c r="G39">
-        <v>52.5</v>
+        <v>45</v>
       </c>
       <c r="H39">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I39">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="K39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D40">
-        <v>90000000</v>
+        <v>105000000</v>
       </c>
       <c r="E40">
         <v>37500</v>
       </c>
       <c r="F40">
-        <v>8500000</v>
+        <v>9000000</v>
       </c>
       <c r="G40">
-        <v>45</v>
+        <v>52.5</v>
       </c>
       <c r="H40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I40">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="J40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="K40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D41">
-        <v>125000000</v>
+        <v>120000000</v>
       </c>
       <c r="E41">
         <v>37500</v>
@@ -2218,16 +2320,19 @@
         <v>65</v>
       </c>
       <c r="H41">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I41">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J41" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="K41" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -2235,48 +2340,51 @@
         <v>103</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D42">
-        <v>105000000</v>
+        <v>200000000</v>
       </c>
       <c r="E42">
-        <v>37500</v>
+        <v>27500</v>
       </c>
       <c r="F42">
-        <v>9000000</v>
+        <v>12500000</v>
       </c>
       <c r="G42">
-        <v>52.5</v>
+        <v>65</v>
       </c>
       <c r="H42">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="I42">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="J42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="K42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" t="s">
         <v>104</v>
       </c>
-      <c r="B43" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" t="s">
-        <v>90</v>
-      </c>
       <c r="D43">
-        <v>120000000</v>
+        <v>140000000</v>
       </c>
       <c r="E43">
-        <v>37500</v>
+        <v>27500</v>
       </c>
       <c r="F43">
-        <v>10000000</v>
+        <v>12500000</v>
       </c>
       <c r="G43">
         <v>65</v>
@@ -2288,21 +2396,24 @@
         <v>100</v>
       </c>
       <c r="J43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="K43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D44">
-        <v>200000000</v>
+        <v>175000000</v>
       </c>
       <c r="E44">
         <v>27500</v>
@@ -2314,16 +2425,19 @@
         <v>65</v>
       </c>
       <c r="H44">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I44">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="J44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="K44" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>109</v>
       </c>
@@ -2331,7 +2445,7 @@
         <v>110</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D45">
         <v>140000000</v>
@@ -2352,10 +2466,13 @@
         <v>100</v>
       </c>
       <c r="J45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="K45" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>111</v>
       </c>
@@ -2363,10 +2480,10 @@
         <v>112</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D46">
-        <v>175000000</v>
+        <v>125000000</v>
       </c>
       <c r="E46">
         <v>27500</v>
@@ -2384,10 +2501,13 @@
         <v>100</v>
       </c>
       <c r="J46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="K46" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>113</v>
       </c>
@@ -2395,7 +2515,7 @@
         <v>114</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D47">
         <v>140000000</v>
@@ -2416,10 +2536,13 @@
         <v>100</v>
       </c>
       <c r="J47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="K47" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>115</v>
       </c>
@@ -2427,10 +2550,10 @@
         <v>116</v>
       </c>
       <c r="C48" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D48">
-        <v>125000000</v>
+        <v>140000000</v>
       </c>
       <c r="E48">
         <v>27500</v>
@@ -2448,103 +2571,10 @@
         <v>100</v>
       </c>
       <c r="J48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>117</v>
-      </c>
-      <c r="B49" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49">
-        <v>140000000</v>
-      </c>
-      <c r="E49">
-        <v>27500</v>
-      </c>
-      <c r="F49">
-        <v>12500000</v>
-      </c>
-      <c r="G49">
-        <v>65</v>
-      </c>
-      <c r="H49">
-        <v>50</v>
-      </c>
-      <c r="I49">
-        <v>100</v>
-      </c>
-      <c r="J49" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>119</v>
-      </c>
-      <c r="B50" t="s">
-        <v>120</v>
-      </c>
-      <c r="C50" t="s">
-        <v>108</v>
-      </c>
-      <c r="D50">
-        <v>155000000</v>
-      </c>
-      <c r="E50">
-        <v>27500</v>
-      </c>
-      <c r="F50">
-        <v>12500000</v>
-      </c>
-      <c r="G50">
-        <v>65</v>
-      </c>
-      <c r="H50">
-        <v>50</v>
-      </c>
-      <c r="I50">
-        <v>100</v>
-      </c>
-      <c r="J50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>121</v>
-      </c>
-      <c r="B51" t="s">
-        <v>122</v>
-      </c>
-      <c r="C51" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51">
-        <v>140000000</v>
-      </c>
-      <c r="E51">
-        <v>27500</v>
-      </c>
-      <c r="F51">
-        <v>12500000</v>
-      </c>
-      <c r="G51">
-        <v>65</v>
-      </c>
-      <c r="H51">
-        <v>40</v>
-      </c>
-      <c r="I51">
-        <v>100</v>
-      </c>
-      <c r="J51" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="K48" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
